--- a/xlsdata/kyiv-2012-1.xlsx
+++ b/xlsdata/kyiv-2012-1.xlsx
@@ -1331,7 +1331,7 @@
   <dimension ref="A1:K1489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
